--- a/Data/F022.BCD4.FLU.AN05.Z.USD.D.xlsx
+++ b/Data/F022.BCD4.FLU.AN05.Z.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">

--- a/Data/F022.BCD4.FLU.AN05.Z.USD.D.xlsx
+++ b/Data/F022.BCD4.FLU.AN05.Z.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
